--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf7-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Gdf7</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Gdf7</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.141083</v>
       </c>
       <c r="I2">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>0.6162040493135554</v>
+        <v>0.4346264033966666</v>
       </c>
       <c r="R2">
-        <v>5.545836443821999</v>
+        <v>3.91163763057</v>
       </c>
       <c r="S2">
-        <v>0.08307927740512475</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="T2">
-        <v>0.08674280030599556</v>
+        <v>0.1569651396557324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.141083</v>
       </c>
       <c r="I3">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
         <v>1.389291438397889</v>
@@ -638,10 +638,10 @@
         <v>12.503622945581</v>
       </c>
       <c r="S3">
-        <v>0.187310240716206</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="T3">
-        <v>0.1955700063023366</v>
+        <v>0.5017420086455576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.141083</v>
       </c>
       <c r="I4">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>0.2782084494152222</v>
+        <v>0.3456454180002222</v>
       </c>
       <c r="R4">
-        <v>2.503876044737</v>
+        <v>3.110808762002</v>
       </c>
       <c r="S4">
-        <v>0.03750925845288567</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="T4">
-        <v>0.03916329338950095</v>
+        <v>0.1248296948454213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -732,10 +732,10 @@
         <v>0.141083</v>
       </c>
       <c r="I5">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>0.3833300119128333</v>
+        <v>0.5695284866251665</v>
       </c>
       <c r="R5">
-        <v>2.299980071477</v>
+        <v>3.417170919750999</v>
       </c>
       <c r="S5">
-        <v>0.05168219915609612</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="T5">
-        <v>0.03597414277699211</v>
+        <v>0.1371233128688515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.141083</v>
       </c>
       <c r="I6">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>0.3583889907894444</v>
+        <v>0.2196869388492222</v>
       </c>
       <c r="R6">
-        <v>3.225500917104999</v>
+        <v>1.977182449643</v>
       </c>
       <c r="S6">
-        <v>0.04831954353092556</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="T6">
-        <v>0.05045027648641286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.204793</v>
-      </c>
-      <c r="I7">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J7">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>13.10301133333333</v>
-      </c>
-      <c r="N7">
-        <v>39.309034</v>
-      </c>
-      <c r="O7">
-        <v>0.2036753411238415</v>
-      </c>
-      <c r="P7">
-        <v>0.2126567538160977</v>
-      </c>
-      <c r="Q7">
-        <v>0.894468333329111</v>
-      </c>
-      <c r="R7">
-        <v>8.050214999962</v>
-      </c>
-      <c r="S7">
-        <v>0.1205960637187167</v>
-      </c>
-      <c r="T7">
-        <v>0.1259139535101022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.204793</v>
-      </c>
-      <c r="I8">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J8">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>29.54200233333333</v>
-      </c>
-      <c r="N8">
-        <v>88.626007</v>
-      </c>
-      <c r="O8">
-        <v>0.4592056932299319</v>
-      </c>
-      <c r="P8">
-        <v>0.479455154057023</v>
-      </c>
-      <c r="Q8">
-        <v>2.016665094616778</v>
-      </c>
-      <c r="R8">
-        <v>18.149985851551</v>
-      </c>
-      <c r="S8">
-        <v>0.2718954525137258</v>
-      </c>
-      <c r="T8">
-        <v>0.2838851477546865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.204793</v>
-      </c>
-      <c r="I9">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J9">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.915846333333334</v>
-      </c>
-      <c r="N9">
-        <v>17.747539</v>
-      </c>
-      <c r="O9">
-        <v>0.09195687840951981</v>
-      </c>
-      <c r="P9">
-        <v>0.09601187431786275</v>
-      </c>
-      <c r="Q9">
-        <v>0.4038413060474444</v>
-      </c>
-      <c r="R9">
-        <v>3.634571754427</v>
-      </c>
-      <c r="S9">
-        <v>0.05444761995663414</v>
-      </c>
-      <c r="T9">
-        <v>0.05684858092836181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.204793</v>
-      </c>
-      <c r="I10">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J10">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.1511595</v>
-      </c>
-      <c r="N10">
-        <v>16.302319</v>
-      </c>
-      <c r="O10">
-        <v>0.1267029501450487</v>
-      </c>
-      <c r="P10">
-        <v>0.08819342236226138</v>
-      </c>
-      <c r="Q10">
-        <v>0.5564334691611666</v>
-      </c>
-      <c r="R10">
-        <v>3.338600814967</v>
-      </c>
-      <c r="S10">
-        <v>0.07502075098895256</v>
-      </c>
-      <c r="T10">
-        <v>0.05221927958526928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.204793</v>
-      </c>
-      <c r="I11">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J11">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>7.620811666666666</v>
-      </c>
-      <c r="N11">
-        <v>22.862435</v>
-      </c>
-      <c r="O11">
-        <v>0.1184591370916582</v>
-      </c>
-      <c r="P11">
-        <v>0.123682795446755</v>
-      </c>
-      <c r="Q11">
-        <v>0.5202296278838888</v>
-      </c>
-      <c r="R11">
-        <v>4.682066650955</v>
-      </c>
-      <c r="S11">
-        <v>0.07013959356073261</v>
-      </c>
-      <c r="T11">
-        <v>0.07323251896034214</v>
+        <v>0.079339843984437</v>
       </c>
     </row>
   </sheetData>
